--- a/excel/real_world_graph_time_PTGG.xlsx
+++ b/excel/real_world_graph_time_PTGG.xlsx
@@ -455,615 +455,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>0.259</v>
+      </c>
       <c r="C2">
-        <v>0.259</v>
+        <v>0.503</v>
       </c>
       <c r="D2">
-        <v>0.503</v>
+        <v>0.241</v>
       </c>
       <c r="E2">
-        <v>0.241</v>
+        <v>0.247</v>
       </c>
       <c r="F2">
-        <v>0.247</v>
+        <v>325729</v>
       </c>
       <c r="G2">
-        <v>325729</v>
+        <v>1090108</v>
       </c>
       <c r="H2">
-        <v>1090108</v>
-      </c>
-      <c r="I2">
         <v>6.69</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3">
+        <v>0.223</v>
+      </c>
       <c r="C3">
-        <v>0.223</v>
+        <v>0.457</v>
       </c>
       <c r="D3">
-        <v>0.457</v>
+        <v>0.154</v>
       </c>
       <c r="E3">
-        <v>0.154</v>
+        <v>0.193</v>
       </c>
       <c r="F3">
-        <v>0.193</v>
+        <v>317080</v>
       </c>
       <c r="G3">
-        <v>317080</v>
+        <v>1049866</v>
       </c>
       <c r="H3">
-        <v>1049866</v>
-      </c>
-      <c r="I3">
         <v>6.62</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>0.378</v>
+      </c>
       <c r="C4">
-        <v>0.378</v>
+        <v>0.662</v>
       </c>
       <c r="D4">
-        <v>0.662</v>
+        <v>0.273</v>
       </c>
       <c r="E4">
-        <v>0.273</v>
+        <v>0.384</v>
       </c>
       <c r="F4">
-        <v>0.384</v>
+        <v>403394</v>
       </c>
       <c r="G4">
-        <v>403394</v>
+        <v>2443408</v>
       </c>
       <c r="H4">
-        <v>2443408</v>
-      </c>
-      <c r="I4">
         <v>12.11</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0.165</v>
+      </c>
       <c r="C5">
-        <v>0.165</v>
+        <v>0.7380000000000001</v>
       </c>
       <c r="D5">
-        <v>0.7380000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="E5">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="F5">
-        <v>0.37</v>
+        <v>1965206</v>
       </c>
       <c r="G5">
-        <v>1965206</v>
+        <v>2766607</v>
       </c>
       <c r="H5">
-        <v>2766607</v>
-      </c>
-      <c r="I5">
         <v>2.82</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
+      <c r="B6">
+        <v>2.955</v>
+      </c>
       <c r="C6">
-        <v>2.955</v>
+        <v>2.606</v>
       </c>
       <c r="D6">
-        <v>2.606</v>
+        <v>0.924</v>
       </c>
       <c r="E6">
-        <v>0.924</v>
+        <v>1.19</v>
       </c>
       <c r="F6">
-        <v>1.19</v>
+        <v>2394385</v>
       </c>
       <c r="G6">
-        <v>2394385</v>
+        <v>4659565</v>
       </c>
       <c r="H6">
-        <v>4659565</v>
-      </c>
-      <c r="I6">
         <v>3.89</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7">
+        <v>1.532</v>
+      </c>
       <c r="C7">
-        <v>1.532</v>
+        <v>1.533</v>
       </c>
       <c r="D7">
-        <v>1.533</v>
+        <v>1.308</v>
       </c>
       <c r="E7">
-        <v>1.308</v>
+        <v>1.102</v>
       </c>
       <c r="F7">
-        <v>1.102</v>
+        <v>1224346</v>
       </c>
       <c r="G7">
-        <v>1224346</v>
+        <v>5369472</v>
       </c>
       <c r="H7">
-        <v>5369472</v>
-      </c>
-      <c r="I7">
         <v>8.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0.95</v>
+      </c>
       <c r="C8">
-        <v>0.95</v>
+        <v>1.534</v>
       </c>
       <c r="D8">
         <v>1.534</v>
       </c>
       <c r="E8">
-        <v>1.534</v>
+        <v>1.252</v>
       </c>
       <c r="F8">
-        <v>1.252</v>
+        <v>685230</v>
       </c>
       <c r="G8">
-        <v>685230</v>
+        <v>6649470</v>
       </c>
       <c r="H8">
-        <v>6649470</v>
-      </c>
-      <c r="I8">
         <v>19.41</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9">
+        <v>4.294</v>
+      </c>
       <c r="C9">
-        <v>4.294</v>
+        <v>3.314</v>
       </c>
       <c r="D9">
-        <v>3.314</v>
+        <v>2.274</v>
       </c>
       <c r="E9">
-        <v>2.274</v>
+        <v>2.238</v>
       </c>
       <c r="F9">
-        <v>2.238</v>
+        <v>1696415</v>
       </c>
       <c r="G9">
-        <v>1696415</v>
+        <v>11095298</v>
       </c>
       <c r="H9">
-        <v>11095298</v>
-      </c>
-      <c r="I9">
         <v>13.08</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="B10">
+        <v>6.418</v>
+      </c>
       <c r="C10">
-        <v>6.418</v>
+        <v>5.67</v>
       </c>
       <c r="D10">
-        <v>5.67</v>
+        <v>4.167</v>
       </c>
       <c r="E10">
-        <v>4.167</v>
+        <v>4.630999999999999</v>
       </c>
       <c r="F10">
-        <v>4.630999999999999</v>
+        <v>3774768</v>
       </c>
       <c r="G10">
-        <v>3774768</v>
+        <v>16518947</v>
       </c>
       <c r="H10">
-        <v>16518947</v>
-      </c>
-      <c r="I10">
         <v>8.75</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="B11">
+        <v>16.922</v>
+      </c>
       <c r="C11">
-        <v>16.922</v>
+        <v>8.968</v>
       </c>
       <c r="D11">
-        <v>8.968</v>
+        <v>8.163</v>
       </c>
       <c r="E11">
-        <v>8.163</v>
+        <v>7.159000000000001</v>
       </c>
       <c r="F11">
-        <v>7.159000000000001</v>
+        <v>1632803</v>
       </c>
       <c r="G11">
-        <v>1632803</v>
+        <v>22301964</v>
       </c>
       <c r="H11">
-        <v>22301964</v>
-      </c>
-      <c r="I11">
         <v>27.32</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
+      <c r="B12">
+        <v>62.597</v>
+      </c>
       <c r="C12">
-        <v>62.597</v>
+        <v>28.762</v>
       </c>
       <c r="D12">
-        <v>28.762</v>
+        <v>20.299</v>
       </c>
       <c r="E12">
-        <v>20.299</v>
+        <v>21.873</v>
       </c>
       <c r="F12">
-        <v>21.873</v>
+        <v>2601977</v>
       </c>
       <c r="G12">
-        <v>2601977</v>
+        <v>28183518</v>
       </c>
       <c r="H12">
-        <v>28183518</v>
-      </c>
-      <c r="I12">
         <v>21.66</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
+      <c r="B13">
+        <v>23.651</v>
+      </c>
       <c r="C13">
-        <v>23.651</v>
+        <v>13.04</v>
       </c>
       <c r="D13">
-        <v>13.04</v>
+        <v>13.361</v>
       </c>
       <c r="E13">
-        <v>13.361</v>
+        <v>9.939</v>
       </c>
       <c r="F13">
-        <v>9.939</v>
+        <v>3997962</v>
       </c>
       <c r="G13">
-        <v>3997962</v>
+        <v>34681189</v>
       </c>
       <c r="H13">
-        <v>34681189</v>
-      </c>
-      <c r="I13">
         <v>17.35</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
+      <c r="B14">
+        <v>35.531</v>
+      </c>
       <c r="C14">
-        <v>35.531</v>
+        <v>18.13</v>
       </c>
       <c r="D14">
-        <v>18.13</v>
+        <v>18.319</v>
       </c>
       <c r="E14">
-        <v>18.319</v>
+        <v>14.358</v>
       </c>
       <c r="F14">
-        <v>14.358</v>
+        <v>4847571</v>
       </c>
       <c r="G14">
-        <v>4847571</v>
+        <v>42851237</v>
       </c>
       <c r="H14">
-        <v>42851237</v>
-      </c>
-      <c r="I14">
         <v>17.68</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
+      <c r="B15">
+        <v>6.282</v>
+      </c>
       <c r="C15">
-        <v>6.282</v>
+        <v>15.989</v>
       </c>
       <c r="D15">
-        <v>15.989</v>
+        <v>4.933</v>
       </c>
       <c r="E15">
-        <v>4.933</v>
+        <v>4.724</v>
       </c>
       <c r="F15">
-        <v>4.724</v>
+        <v>55042369</v>
       </c>
       <c r="G15">
-        <v>55042369</v>
+        <v>58608800</v>
       </c>
       <c r="H15">
-        <v>58608800</v>
-      </c>
-      <c r="I15">
         <v>2.13</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
+      <c r="B16">
+        <v>659.494</v>
+      </c>
       <c r="C16">
-        <v>659.494</v>
+        <v>242.755</v>
       </c>
       <c r="D16">
-        <v>242.755</v>
+        <v>251.076</v>
       </c>
       <c r="E16">
-        <v>251.076</v>
+        <v>203.592</v>
       </c>
       <c r="F16">
-        <v>203.592</v>
+        <v>1985306</v>
       </c>
       <c r="G16">
-        <v>1985306</v>
+        <v>114492816</v>
       </c>
       <c r="H16">
-        <v>114492816</v>
-      </c>
-      <c r="I16">
         <v>115.34</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
+      <c r="B17">
+        <v>232.864</v>
+      </c>
       <c r="C17">
-        <v>232.864</v>
+        <v>93.651</v>
       </c>
       <c r="D17">
-        <v>93.651</v>
+        <v>93.93799999999999</v>
       </c>
       <c r="E17">
-        <v>93.93799999999999</v>
+        <v>78.53200000000001</v>
       </c>
       <c r="F17">
-        <v>78.53200000000001</v>
+        <v>3072441</v>
       </c>
       <c r="G17">
-        <v>3072441</v>
+        <v>117185083</v>
       </c>
       <c r="H17">
-        <v>117185083</v>
-      </c>
-      <c r="I17">
         <v>76.28</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
+      <c r="B18">
+        <v>234.843</v>
+      </c>
       <c r="C18">
-        <v>234.843</v>
+        <v>97.283</v>
       </c>
       <c r="D18">
-        <v>97.283</v>
+        <v>97.744</v>
       </c>
       <c r="E18">
-        <v>97.744</v>
+        <v>79.68300000000001</v>
       </c>
       <c r="F18">
-        <v>79.68300000000001</v>
+        <v>6783976</v>
       </c>
       <c r="G18">
-        <v>6783976</v>
+        <v>157010940</v>
       </c>
       <c r="H18">
-        <v>157010940</v>
-      </c>
-      <c r="I18">
         <v>46.29</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
+      <c r="B19">
+        <v>21.07</v>
+      </c>
       <c r="C19">
-        <v>21.07</v>
+        <v>64.366</v>
       </c>
       <c r="D19">
-        <v>64.366</v>
+        <v>15.571</v>
       </c>
       <c r="E19">
-        <v>15.571</v>
+        <v>18.189</v>
       </c>
       <c r="F19">
-        <v>18.189</v>
+        <v>214005017</v>
       </c>
       <c r="G19">
-        <v>214005017</v>
+        <v>232705452</v>
       </c>
       <c r="H19">
-        <v>232705452</v>
-      </c>
-      <c r="I19">
         <v>2.17</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
+      <c r="B20">
+        <v>10127.473</v>
+      </c>
       <c r="C20">
-        <v>10127.473</v>
+        <v>3285.468</v>
       </c>
       <c r="D20">
-        <v>3285.468</v>
+        <v>3048.388</v>
       </c>
       <c r="E20">
-        <v>3048.388</v>
+        <v>2961.046</v>
       </c>
       <c r="F20">
-        <v>2961.046</v>
+        <v>41652230</v>
       </c>
       <c r="G20">
-        <v>41652230</v>
+        <v>1202513046</v>
       </c>
       <c r="H20">
-        <v>1202513046</v>
-      </c>
-      <c r="I20">
         <v>57.74</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
+      <c r="B21">
+        <v>5433.922</v>
+      </c>
       <c r="C21">
-        <v>5433.922</v>
+        <v>2226.374</v>
       </c>
       <c r="D21">
-        <v>2226.374</v>
+        <v>2166.496</v>
       </c>
       <c r="E21">
-        <v>2166.496</v>
+        <v>1944.293</v>
       </c>
       <c r="F21">
-        <v>1944.293</v>
+        <v>65608366</v>
       </c>
       <c r="G21">
-        <v>65608366</v>
+        <v>1806067135</v>
       </c>
       <c r="H21">
-        <v>1806067135</v>
-      </c>
-      <c r="I21">
         <v>55.06</v>
       </c>
     </row>

--- a/excel/real_world_graph_time_PTGG.xlsx
+++ b/excel/real_world_graph_time_PTGG.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDAC6F-194F-4EB5-AC01-579D55B919EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="690" yWindow="2115" windowWidth="27330" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -103,12 +109,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,8 +122,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,17 +176,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +232,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -245,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,9 +301,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,14 +477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,18 +517,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="C2">
         <v>0.503</v>
       </c>
       <c r="D2">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E2">
         <v>0.247</v>
@@ -513,7 +543,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -521,7 +551,7 @@
         <v>0.223</v>
       </c>
       <c r="C3">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D3">
         <v>0.154</v>
@@ -539,7 +569,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -547,13 +577,13 @@
         <v>0.378</v>
       </c>
       <c r="C4">
-        <v>0.662</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D4">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E4">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F4">
         <v>403394</v>
@@ -565,12 +595,12 @@
         <v>12.11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C5">
         <v>0.7380000000000001</v>
@@ -591,18 +621,18 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2.955</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="C6">
-        <v>2.606</v>
+        <v>2.6059999999999999</v>
       </c>
       <c r="D6">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="E6">
         <v>1.19</v>
@@ -617,7 +647,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -625,13 +655,13 @@
         <v>1.532</v>
       </c>
       <c r="C7">
-        <v>1.533</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="D7">
-        <v>1.308</v>
+        <v>1.3080000000000001</v>
       </c>
       <c r="E7">
-        <v>1.102</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="F7">
         <v>1224346</v>
@@ -643,7 +673,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -669,15 +699,15 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>4.294</v>
+        <v>4.2939999999999996</v>
       </c>
       <c r="C9">
-        <v>3.314</v>
+        <v>3.3140000000000001</v>
       </c>
       <c r="D9">
         <v>2.274</v>
@@ -695,21 +725,21 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>6.418</v>
+        <v>6.4180000000000001</v>
       </c>
       <c r="C10">
         <v>5.67</v>
       </c>
       <c r="D10">
-        <v>4.167</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="E10">
-        <v>4.630999999999999</v>
+        <v>4.6309999999999993</v>
       </c>
       <c r="F10">
         <v>3774768</v>
@@ -721,21 +751,21 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>16.922</v>
+        <v>16.922000000000001</v>
       </c>
       <c r="C11">
         <v>8.968</v>
       </c>
       <c r="D11">
-        <v>8.163</v>
+        <v>8.1630000000000003</v>
       </c>
       <c r="E11">
-        <v>7.159000000000001</v>
+        <v>7.1590000000000007</v>
       </c>
       <c r="F11">
         <v>1632803</v>
@@ -747,21 +777,21 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>62.597</v>
+        <v>62.597000000000001</v>
       </c>
       <c r="C12">
         <v>28.762</v>
       </c>
       <c r="D12">
-        <v>20.299</v>
+        <v>20.298999999999999</v>
       </c>
       <c r="E12">
-        <v>21.873</v>
+        <v>21.873000000000001</v>
       </c>
       <c r="F12">
         <v>2601977</v>
@@ -773,7 +803,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -784,10 +814,10 @@
         <v>13.04</v>
       </c>
       <c r="D13">
-        <v>13.361</v>
+        <v>13.361000000000001</v>
       </c>
       <c r="E13">
-        <v>9.939</v>
+        <v>9.9390000000000001</v>
       </c>
       <c r="F13">
         <v>3997962</v>
@@ -796,24 +826,24 @@
         <v>34681189</v>
       </c>
       <c r="H13">
-        <v>17.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17.350000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
-        <v>35.531</v>
+        <v>35.530999999999999</v>
       </c>
       <c r="C14">
         <v>18.13</v>
       </c>
       <c r="D14">
-        <v>18.319</v>
+        <v>18.318999999999999</v>
       </c>
       <c r="E14">
-        <v>14.358</v>
+        <v>14.358000000000001</v>
       </c>
       <c r="F14">
         <v>4847571</v>
@@ -825,7 +855,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -833,13 +863,13 @@
         <v>6.282</v>
       </c>
       <c r="C15">
-        <v>15.989</v>
+        <v>15.989000000000001</v>
       </c>
       <c r="D15">
-        <v>4.933</v>
+        <v>4.9329999999999998</v>
       </c>
       <c r="E15">
-        <v>4.724</v>
+        <v>4.7240000000000002</v>
       </c>
       <c r="F15">
         <v>55042369</v>
@@ -851,21 +881,21 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">
-        <v>659.494</v>
+        <v>659.49400000000003</v>
       </c>
       <c r="C16">
         <v>242.755</v>
       </c>
       <c r="D16">
-        <v>251.076</v>
+        <v>251.07599999999999</v>
       </c>
       <c r="E16">
-        <v>203.592</v>
+        <v>203.59200000000001</v>
       </c>
       <c r="F16">
         <v>1985306</v>
@@ -877,7 +907,7 @@
         <v>115.34</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -885,13 +915,13 @@
         <v>232.864</v>
       </c>
       <c r="C17">
-        <v>93.651</v>
+        <v>93.650999999999996</v>
       </c>
       <c r="D17">
-        <v>93.93799999999999</v>
+        <v>93.937999999999988</v>
       </c>
       <c r="E17">
-        <v>78.53200000000001</v>
+        <v>78.532000000000011</v>
       </c>
       <c r="F17">
         <v>3072441</v>
@@ -903,21 +933,21 @@
         <v>76.28</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>234.843</v>
+        <v>234.84299999999999</v>
       </c>
       <c r="C18">
-        <v>97.283</v>
+        <v>97.283000000000001</v>
       </c>
       <c r="D18">
         <v>97.744</v>
       </c>
       <c r="E18">
-        <v>79.68300000000001</v>
+        <v>79.683000000000007</v>
       </c>
       <c r="F18">
         <v>6783976</v>
@@ -929,7 +959,7 @@
         <v>46.29</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -955,7 +985,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -963,13 +993,13 @@
         <v>10127.473</v>
       </c>
       <c r="C20">
-        <v>3285.468</v>
+        <v>3285.4679999999998</v>
       </c>
       <c r="D20">
-        <v>3048.388</v>
+        <v>3048.3879999999999</v>
       </c>
       <c r="E20">
-        <v>2961.046</v>
+        <v>2961.0459999999998</v>
       </c>
       <c r="F20">
         <v>41652230</v>
@@ -981,21 +1011,21 @@
         <v>57.74</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21">
-        <v>5433.922</v>
+        <v>5433.9219999999996</v>
       </c>
       <c r="C21">
-        <v>2226.374</v>
+        <v>2226.3739999999998</v>
       </c>
       <c r="D21">
-        <v>2166.496</v>
+        <v>2166.4960000000001</v>
       </c>
       <c r="E21">
-        <v>1944.293</v>
+        <v>1944.2929999999999</v>
       </c>
       <c r="F21">
         <v>65608366</v>
@@ -1008,6 +1038,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/real_world_graph_time_PTGG.xlsx
+++ b/excel/real_world_graph_time_PTGG.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDAC6F-194F-4EB5-AC01-579D55B919EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2115" windowWidth="27330" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Datasets</t>
   </si>
@@ -44,6 +38,21 @@
   </si>
   <si>
     <t>avg_degree</t>
+  </si>
+  <si>
+    <t>small degree first vertex</t>
+  </si>
+  <si>
+    <t>small degree first edge</t>
+  </si>
+  <si>
+    <t>no compute first vertex</t>
+  </si>
+  <si>
+    <t>no compute first edge</t>
+  </si>
+  <si>
+    <t>small degree vertex avg degree</t>
   </si>
   <si>
     <t>WN</t>
@@ -109,12 +118,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,15 +131,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,25 +178,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,7 +260,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,10 +294,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,21 +469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,19 +501,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.25900000000000001</v>
+        <v>0.259</v>
       </c>
       <c r="C2">
         <v>0.503</v>
       </c>
       <c r="D2">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="E2">
         <v>0.247</v>
@@ -540,18 +540,33 @@
         <v>1090108</v>
       </c>
       <c r="H2">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>6.693343239318574</v>
+      </c>
+      <c r="I2">
+        <v>487</v>
+      </c>
+      <c r="J2">
+        <v>62122</v>
+      </c>
+      <c r="K2">
+        <v>151666</v>
+      </c>
+      <c r="L2">
+        <v>918795</v>
+      </c>
+      <c r="M2">
+        <v>5.666613749264117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.223</v>
       </c>
       <c r="C3">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D3">
         <v>0.154</v>
@@ -566,24 +581,39 @@
         <v>1049866</v>
       </c>
       <c r="H3">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>6.622089062697111</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1492</v>
+      </c>
+      <c r="K3">
+        <v>242509</v>
+      </c>
+      <c r="L3">
+        <v>977594</v>
+      </c>
+      <c r="M3">
+        <v>4.025245881358378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.378</v>
       </c>
       <c r="C4">
-        <v>0.66200000000000003</v>
+        <v>0.662</v>
       </c>
       <c r="D4">
-        <v>0.27300000000000002</v>
+        <v>0.273</v>
       </c>
       <c r="E4">
-        <v>0.38400000000000001</v>
+        <v>0.384</v>
       </c>
       <c r="F4">
         <v>403394</v>
@@ -592,15 +622,30 @@
         <v>2443408</v>
       </c>
       <c r="H4">
-        <v>12.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>12.11425058379649</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>377343</v>
+      </c>
+      <c r="L4">
+        <v>2421872</v>
+      </c>
+      <c r="M4">
+        <v>6.418224268106206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="C5">
         <v>0.7380000000000001</v>
@@ -618,21 +663,36 @@
         <v>2766607</v>
       </c>
       <c r="H5">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2.815589816029465</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>856203</v>
+      </c>
+      <c r="L5">
+        <v>1928091</v>
+      </c>
+      <c r="M5">
+        <v>2.251908717909187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>2.9550000000000001</v>
+        <v>2.955</v>
       </c>
       <c r="C6">
-        <v>2.6059999999999999</v>
+        <v>2.606</v>
       </c>
       <c r="D6">
-        <v>0.92400000000000004</v>
+        <v>0.924</v>
       </c>
       <c r="E6">
         <v>1.19</v>
@@ -644,24 +704,39 @@
         <v>4659565</v>
       </c>
       <c r="H6">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>3.892076671044966</v>
+      </c>
+      <c r="I6">
+        <v>1411</v>
+      </c>
+      <c r="J6">
+        <v>203200</v>
+      </c>
+      <c r="K6">
+        <v>621012</v>
+      </c>
+      <c r="L6">
+        <v>2888957</v>
+      </c>
+      <c r="M6">
+        <v>4.334655689709991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1.532</v>
       </c>
       <c r="C7">
-        <v>1.5329999999999999</v>
+        <v>1.533</v>
       </c>
       <c r="D7">
-        <v>1.3080000000000001</v>
+        <v>1.308</v>
       </c>
       <c r="E7">
-        <v>1.1020000000000001</v>
+        <v>1.102</v>
       </c>
       <c r="F7">
         <v>1224346</v>
@@ -670,12 +745,27 @@
         <v>5369472</v>
       </c>
       <c r="H7">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>8.771167627451717</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>406</v>
+      </c>
+      <c r="K7">
+        <v>848577</v>
+      </c>
+      <c r="L7">
+        <v>5094250</v>
+      </c>
+      <c r="M7">
+        <v>6.002835348284709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0.95</v>
@@ -696,18 +786,33 @@
         <v>6649470</v>
       </c>
       <c r="H8">
-        <v>19.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19.40799439604221</v>
+      </c>
+      <c r="I8">
+        <v>1854</v>
+      </c>
+      <c r="J8">
+        <v>209701</v>
+      </c>
+      <c r="K8">
+        <v>608489</v>
+      </c>
+      <c r="L8">
+        <v>6581031</v>
+      </c>
+      <c r="M8">
+        <v>10.5027405276649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>4.2939999999999996</v>
+        <v>4.294</v>
       </c>
       <c r="C9">
-        <v>3.3140000000000001</v>
+        <v>3.314</v>
       </c>
       <c r="D9">
         <v>2.274</v>
@@ -722,24 +827,39 @@
         <v>11095298</v>
       </c>
       <c r="H9">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13.08087702596358</v>
+      </c>
+      <c r="I9">
+        <v>988</v>
+      </c>
+      <c r="J9">
+        <v>116340</v>
+      </c>
+      <c r="K9">
+        <v>1423165</v>
+      </c>
+      <c r="L9">
+        <v>10832625</v>
+      </c>
+      <c r="M9">
+        <v>7.535127484131722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>6.4180000000000001</v>
+        <v>6.418</v>
       </c>
       <c r="C10">
         <v>5.67</v>
       </c>
       <c r="D10">
-        <v>4.1669999999999998</v>
+        <v>4.167</v>
       </c>
       <c r="E10">
-        <v>4.6309999999999993</v>
+        <v>4.630999999999999</v>
       </c>
       <c r="F10">
         <v>3774768</v>
@@ -748,24 +868,39 @@
         <v>16518947</v>
       </c>
       <c r="H10">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>8.752297889565664</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2944946</v>
+      </c>
+      <c r="L10">
+        <v>15745211</v>
+      </c>
+      <c r="M10">
+        <v>5.346519426841782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>16.922000000000001</v>
+        <v>16.922</v>
       </c>
       <c r="C11">
         <v>8.968</v>
       </c>
       <c r="D11">
-        <v>8.1630000000000003</v>
+        <v>8.163</v>
       </c>
       <c r="E11">
-        <v>7.1590000000000007</v>
+        <v>7.159000000000001</v>
       </c>
       <c r="F11">
         <v>1632803</v>
@@ -774,24 +909,39 @@
         <v>22301964</v>
       </c>
       <c r="H11">
-        <v>27.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>27.31739713854029</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1462551</v>
+      </c>
+      <c r="L11">
+        <v>22132301</v>
+      </c>
+      <c r="M11">
+        <v>15.13266956160845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>62.597000000000001</v>
+        <v>62.597</v>
       </c>
       <c r="C12">
         <v>28.762</v>
       </c>
       <c r="D12">
-        <v>20.298999999999999</v>
+        <v>20.299</v>
       </c>
       <c r="E12">
-        <v>21.873000000000001</v>
+        <v>21.873</v>
       </c>
       <c r="F12">
         <v>2601977</v>
@@ -800,12 +950,27 @@
         <v>28183518</v>
       </c>
       <c r="H12">
-        <v>21.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>21.66315689954216</v>
+      </c>
+      <c r="I12">
+        <v>37378</v>
+      </c>
+      <c r="J12">
+        <v>5559907</v>
+      </c>
+      <c r="K12">
+        <v>1947518</v>
+      </c>
+      <c r="L12">
+        <v>27552833</v>
+      </c>
+      <c r="M12">
+        <v>11.5137770006387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>23.651</v>
@@ -814,10 +979,10 @@
         <v>13.04</v>
       </c>
       <c r="D13">
-        <v>13.361000000000001</v>
+        <v>13.361</v>
       </c>
       <c r="E13">
-        <v>9.9390000000000001</v>
+        <v>9.939</v>
       </c>
       <c r="F13">
         <v>3997962</v>
@@ -826,24 +991,39 @@
         <v>34681189</v>
       </c>
       <c r="H13">
-        <v>17.350000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>17.34943403664167</v>
+      </c>
+      <c r="I13">
+        <v>9274</v>
+      </c>
+      <c r="J13">
+        <v>1380556</v>
+      </c>
+      <c r="K13">
+        <v>3132157</v>
+      </c>
+      <c r="L13">
+        <v>33823008</v>
+      </c>
+      <c r="M13">
+        <v>10.38862230829653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>35.530999999999999</v>
+        <v>35.531</v>
       </c>
       <c r="C14">
         <v>18.13</v>
       </c>
       <c r="D14">
-        <v>18.318999999999999</v>
+        <v>18.319</v>
       </c>
       <c r="E14">
-        <v>14.358000000000001</v>
+        <v>14.358</v>
       </c>
       <c r="F14">
         <v>4847571</v>
@@ -852,24 +1032,39 @@
         <v>42851237</v>
       </c>
       <c r="H14">
-        <v>17.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>17.67946751063574</v>
+      </c>
+      <c r="I14">
+        <v>18936</v>
+      </c>
+      <c r="J14">
+        <v>2875108</v>
+      </c>
+      <c r="K14">
+        <v>3680794</v>
+      </c>
+      <c r="L14">
+        <v>41695681</v>
+      </c>
+      <c r="M14">
+        <v>10.601332165256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>6.282</v>
       </c>
       <c r="C15">
-        <v>15.989000000000001</v>
+        <v>15.989</v>
       </c>
       <c r="D15">
-        <v>4.9329999999999998</v>
+        <v>4.933</v>
       </c>
       <c r="E15">
-        <v>4.7240000000000002</v>
+        <v>4.724</v>
       </c>
       <c r="F15">
         <v>55042369</v>
@@ -878,24 +1073,39 @@
         <v>58608800</v>
       </c>
       <c r="H15">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2.129588572032574</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>19284842</v>
+      </c>
+      <c r="L15">
+        <v>38751887</v>
+      </c>
+      <c r="M15">
+        <v>2.009447990292065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>659.49400000000003</v>
+        <v>659.494</v>
       </c>
       <c r="C16">
         <v>242.755</v>
       </c>
       <c r="D16">
-        <v>251.07599999999999</v>
+        <v>251.076</v>
       </c>
       <c r="E16">
-        <v>203.59200000000001</v>
+        <v>203.592</v>
       </c>
       <c r="F16">
         <v>1985306</v>
@@ -904,24 +1114,39 @@
         <v>114492816</v>
       </c>
       <c r="H16">
-        <v>115.34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>115.3402206007537</v>
+      </c>
+      <c r="I16">
+        <v>280915</v>
+      </c>
+      <c r="J16">
+        <v>67360442</v>
+      </c>
+      <c r="K16">
+        <v>1927066</v>
+      </c>
+      <c r="L16">
+        <v>114450945</v>
+      </c>
+      <c r="M16">
+        <v>28.60642978681786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>232.864</v>
       </c>
       <c r="C17">
-        <v>93.650999999999996</v>
+        <v>93.651</v>
       </c>
       <c r="D17">
-        <v>93.937999999999988</v>
+        <v>93.93799999999999</v>
       </c>
       <c r="E17">
-        <v>78.532000000000011</v>
+        <v>78.53200000000001</v>
       </c>
       <c r="F17">
         <v>3072441</v>
@@ -930,24 +1155,39 @@
         <v>117185083</v>
       </c>
       <c r="H17">
-        <v>76.28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>76.28142118921079</v>
+      </c>
+      <c r="I17">
+        <v>121341</v>
+      </c>
+      <c r="J17">
+        <v>19727089</v>
+      </c>
+      <c r="K17">
+        <v>3003794</v>
+      </c>
+      <c r="L17">
+        <v>117116597</v>
+      </c>
+      <c r="M17">
+        <v>33.78702376066496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>234.84299999999999</v>
+        <v>234.843</v>
       </c>
       <c r="C18">
-        <v>97.283000000000001</v>
+        <v>97.283</v>
       </c>
       <c r="D18">
         <v>97.744</v>
       </c>
       <c r="E18">
-        <v>79.683000000000007</v>
+        <v>79.68300000000001</v>
       </c>
       <c r="F18">
         <v>6783976</v>
@@ -956,12 +1196,27 @@
         <v>157010940</v>
       </c>
       <c r="H18">
-        <v>46.29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>46.28876635176776</v>
+      </c>
+      <c r="I18">
+        <v>119735</v>
+      </c>
+      <c r="J18">
+        <v>15839891</v>
+      </c>
+      <c r="K18">
+        <v>6760186</v>
+      </c>
+      <c r="L18">
+        <v>156987698</v>
+      </c>
+      <c r="M18">
+        <v>21.25575612258866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>21.07</v>
@@ -982,24 +1237,39 @@
         <v>232705452</v>
       </c>
       <c r="H19">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2.174766323352129</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>78003927</v>
+      </c>
+      <c r="L19">
+        <v>156863950</v>
+      </c>
+      <c r="M19">
+        <v>2.010975037192679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>10127.473</v>
       </c>
       <c r="C20">
-        <v>3285.4679999999998</v>
+        <v>3285.468</v>
       </c>
       <c r="D20">
-        <v>3048.3879999999999</v>
+        <v>3048.388</v>
       </c>
       <c r="E20">
-        <v>2961.0459999999998</v>
+        <v>2961.046</v>
       </c>
       <c r="F20">
         <v>41652230</v>
@@ -1008,24 +1278,39 @@
         <v>1202513046</v>
       </c>
       <c r="H20">
-        <v>57.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>57.7406321822385</v>
+      </c>
+      <c r="I20">
+        <v>1892560</v>
+      </c>
+      <c r="J20">
+        <v>519397580</v>
+      </c>
+      <c r="K20">
+        <v>39680179</v>
+      </c>
+      <c r="L20">
+        <v>1200544694</v>
+      </c>
+      <c r="M20">
+        <v>18.02566904255068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>5433.9219999999996</v>
+        <v>5433.922</v>
       </c>
       <c r="C21">
-        <v>2226.3739999999998</v>
+        <v>2226.374</v>
       </c>
       <c r="D21">
-        <v>2166.4960000000001</v>
+        <v>2166.496</v>
       </c>
       <c r="E21">
-        <v>1944.2929999999999</v>
+        <v>1944.293</v>
       </c>
       <c r="F21">
         <v>65608366</v>
@@ -1034,11 +1319,25 @@
         <v>1806067135</v>
       </c>
       <c r="H21">
-        <v>55.06</v>
+        <v>55.05600108986101</v>
+      </c>
+      <c r="I21">
+        <v>4258252</v>
+      </c>
+      <c r="J21">
+        <v>636634507</v>
+      </c>
+      <c r="K21">
+        <v>51429670</v>
+      </c>
+      <c r="L21">
+        <v>1791953648</v>
+      </c>
+      <c r="M21">
+        <v>24.49193155482415</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/real_world_graph_time_PTGG.xlsx
+++ b/excel/real_world_graph_time_PTGG.xlsx
@@ -531,7 +531,7 @@
         <v>0.241</v>
       </c>
       <c r="E2">
-        <v>0.247</v>
+        <v>0.234</v>
       </c>
       <c r="F2">
         <v>325729</v>
@@ -555,7 +555,7 @@
         <v>918795</v>
       </c>
       <c r="M2">
-        <v>5.666613749264117</v>
+        <v>11.33322749852823</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -572,7 +572,7 @@
         <v>0.154</v>
       </c>
       <c r="E3">
-        <v>0.193</v>
+        <v>0.187</v>
       </c>
       <c r="F3">
         <v>317080</v>
@@ -596,7 +596,7 @@
         <v>977594</v>
       </c>
       <c r="M3">
-        <v>4.025245881358378</v>
+        <v>8.050491762716756</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -613,7 +613,7 @@
         <v>0.273</v>
       </c>
       <c r="E4">
-        <v>0.384</v>
+        <v>0.374</v>
       </c>
       <c r="F4">
         <v>403394</v>
@@ -637,7 +637,7 @@
         <v>2421872</v>
       </c>
       <c r="M4">
-        <v>6.418224268106206</v>
+        <v>12.83644853621241</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -654,7 +654,7 @@
         <v>0.23</v>
       </c>
       <c r="E5">
-        <v>0.37</v>
+        <v>0.358</v>
       </c>
       <c r="F5">
         <v>1965206</v>
@@ -678,7 +678,7 @@
         <v>1928091</v>
       </c>
       <c r="M5">
-        <v>2.251908717909187</v>
+        <v>4.503817435818375</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -695,7 +695,7 @@
         <v>0.924</v>
       </c>
       <c r="E6">
-        <v>1.19</v>
+        <v>1.148</v>
       </c>
       <c r="F6">
         <v>2394385</v>
@@ -719,7 +719,7 @@
         <v>2888957</v>
       </c>
       <c r="M6">
-        <v>4.334655689709991</v>
+        <v>8.669311379419982</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -736,7 +736,7 @@
         <v>1.308</v>
       </c>
       <c r="E7">
-        <v>1.102</v>
+        <v>1.095</v>
       </c>
       <c r="F7">
         <v>1224346</v>
@@ -760,7 +760,7 @@
         <v>5094250</v>
       </c>
       <c r="M7">
-        <v>6.002835348284709</v>
+        <v>12.00567069656942</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -777,7 +777,7 @@
         <v>1.534</v>
       </c>
       <c r="E8">
-        <v>1.252</v>
+        <v>1.224</v>
       </c>
       <c r="F8">
         <v>685230</v>
@@ -801,7 +801,7 @@
         <v>6581031</v>
       </c>
       <c r="M8">
-        <v>10.5027405276649</v>
+        <v>21.00548105532981</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -818,7 +818,7 @@
         <v>2.274</v>
       </c>
       <c r="E9">
-        <v>2.238</v>
+        <v>2.215</v>
       </c>
       <c r="F9">
         <v>1696415</v>
@@ -842,7 +842,7 @@
         <v>10832625</v>
       </c>
       <c r="M9">
-        <v>7.535127484131722</v>
+        <v>15.07025496826344</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -859,7 +859,7 @@
         <v>4.167</v>
       </c>
       <c r="E10">
-        <v>4.630999999999999</v>
+        <v>4.615</v>
       </c>
       <c r="F10">
         <v>3774768</v>
@@ -883,7 +883,7 @@
         <v>15745211</v>
       </c>
       <c r="M10">
-        <v>5.346519426841782</v>
+        <v>10.69303885368356</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -900,7 +900,7 @@
         <v>8.163</v>
       </c>
       <c r="E11">
-        <v>7.159000000000001</v>
+        <v>7.146999999999999</v>
       </c>
       <c r="F11">
         <v>1632803</v>
@@ -924,7 +924,7 @@
         <v>22132301</v>
       </c>
       <c r="M11">
-        <v>15.13266956160845</v>
+        <v>30.2653391232169</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -941,7 +941,7 @@
         <v>20.299</v>
       </c>
       <c r="E12">
-        <v>21.873</v>
+        <v>21.196</v>
       </c>
       <c r="F12">
         <v>2601977</v>
@@ -965,7 +965,7 @@
         <v>27552833</v>
       </c>
       <c r="M12">
-        <v>11.5137770006387</v>
+        <v>23.02755400127739</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -982,7 +982,7 @@
         <v>13.361</v>
       </c>
       <c r="E13">
-        <v>9.939</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="F13">
         <v>3997962</v>
@@ -1006,7 +1006,7 @@
         <v>33823008</v>
       </c>
       <c r="M13">
-        <v>10.38862230829653</v>
+        <v>20.77724461659307</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1023,7 +1023,7 @@
         <v>18.319</v>
       </c>
       <c r="E14">
-        <v>14.358</v>
+        <v>13.939</v>
       </c>
       <c r="F14">
         <v>4847571</v>
@@ -1047,7 +1047,7 @@
         <v>41695681</v>
       </c>
       <c r="M14">
-        <v>10.601332165256</v>
+        <v>21.202664330512</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1064,7 +1064,7 @@
         <v>4.933</v>
       </c>
       <c r="E15">
-        <v>4.724</v>
+        <v>4.598</v>
       </c>
       <c r="F15">
         <v>55042369</v>
@@ -1088,7 +1088,7 @@
         <v>38751887</v>
       </c>
       <c r="M15">
-        <v>2.009447990292065</v>
+        <v>4.018895980584129</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1105,7 +1105,7 @@
         <v>251.076</v>
       </c>
       <c r="E16">
-        <v>203.592</v>
+        <v>171.666</v>
       </c>
       <c r="F16">
         <v>1985306</v>
@@ -1129,7 +1129,7 @@
         <v>114450945</v>
       </c>
       <c r="M16">
-        <v>28.60642978681786</v>
+        <v>57.21285957363571</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1146,7 +1146,7 @@
         <v>93.93799999999999</v>
       </c>
       <c r="E17">
-        <v>78.53200000000001</v>
+        <v>76.313</v>
       </c>
       <c r="F17">
         <v>3072441</v>
@@ -1170,7 +1170,7 @@
         <v>117116597</v>
       </c>
       <c r="M17">
-        <v>33.78702376066496</v>
+        <v>67.57404752132992</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1187,7 +1187,7 @@
         <v>97.744</v>
       </c>
       <c r="E18">
-        <v>79.68300000000001</v>
+        <v>78.456</v>
       </c>
       <c r="F18">
         <v>6783976</v>
@@ -1211,7 +1211,7 @@
         <v>156987698</v>
       </c>
       <c r="M18">
-        <v>21.25575612258866</v>
+        <v>42.51151224517732</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1228,7 +1228,7 @@
         <v>15.571</v>
       </c>
       <c r="E19">
-        <v>18.189</v>
+        <v>17.721</v>
       </c>
       <c r="F19">
         <v>214005017</v>
@@ -1252,7 +1252,7 @@
         <v>156863950</v>
       </c>
       <c r="M19">
-        <v>2.010975037192679</v>
+        <v>4.021950074385358</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1269,7 +1269,7 @@
         <v>3048.388</v>
       </c>
       <c r="E20">
-        <v>2961.046</v>
+        <v>2807.385</v>
       </c>
       <c r="F20">
         <v>41652230</v>
@@ -1293,7 +1293,7 @@
         <v>1200544694</v>
       </c>
       <c r="M20">
-        <v>18.02566904255068</v>
+        <v>36.05133808510136</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1310,7 +1310,7 @@
         <v>2166.496</v>
       </c>
       <c r="E21">
-        <v>1944.293</v>
+        <v>1904.577</v>
       </c>
       <c r="F21">
         <v>65608366</v>
@@ -1334,7 +1334,7 @@
         <v>1791953648</v>
       </c>
       <c r="M21">
-        <v>24.49193155482415</v>
+        <v>48.9838631096483</v>
       </c>
     </row>
   </sheetData>

--- a/excel/real_world_graph_time_PTGG.xlsx
+++ b/excel/real_world_graph_time_PTGG.xlsx
@@ -531,7 +531,7 @@
         <v>0.241</v>
       </c>
       <c r="E2">
-        <v>0.234</v>
+        <v>0.274</v>
       </c>
       <c r="F2">
         <v>325729</v>
@@ -572,7 +572,7 @@
         <v>0.154</v>
       </c>
       <c r="E3">
-        <v>0.187</v>
+        <v>0.188</v>
       </c>
       <c r="F3">
         <v>317080</v>
@@ -613,7 +613,7 @@
         <v>0.273</v>
       </c>
       <c r="E4">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="F4">
         <v>403394</v>
@@ -654,7 +654,7 @@
         <v>0.23</v>
       </c>
       <c r="E5">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="F5">
         <v>1965206</v>
@@ -695,7 +695,7 @@
         <v>0.924</v>
       </c>
       <c r="E6">
-        <v>1.148</v>
+        <v>1.155</v>
       </c>
       <c r="F6">
         <v>2394385</v>
@@ -736,7 +736,7 @@
         <v>1.308</v>
       </c>
       <c r="E7">
-        <v>1.095</v>
+        <v>1.089</v>
       </c>
       <c r="F7">
         <v>1224346</v>
@@ -777,7 +777,7 @@
         <v>1.534</v>
       </c>
       <c r="E8">
-        <v>1.224</v>
+        <v>1.221</v>
       </c>
       <c r="F8">
         <v>685230</v>
@@ -818,7 +818,7 @@
         <v>2.274</v>
       </c>
       <c r="E9">
-        <v>2.215</v>
+        <v>2.21</v>
       </c>
       <c r="F9">
         <v>1696415</v>
@@ -859,7 +859,7 @@
         <v>4.167</v>
       </c>
       <c r="E10">
-        <v>4.615</v>
+        <v>4.605</v>
       </c>
       <c r="F10">
         <v>3774768</v>
@@ -900,7 +900,7 @@
         <v>8.163</v>
       </c>
       <c r="E11">
-        <v>7.146999999999999</v>
+        <v>7.154</v>
       </c>
       <c r="F11">
         <v>1632803</v>
@@ -941,7 +941,7 @@
         <v>20.299</v>
       </c>
       <c r="E12">
-        <v>21.196</v>
+        <v>21.545</v>
       </c>
       <c r="F12">
         <v>2601977</v>
@@ -982,7 +982,7 @@
         <v>13.361</v>
       </c>
       <c r="E13">
-        <v>9.736000000000001</v>
+        <v>9.744</v>
       </c>
       <c r="F13">
         <v>3997962</v>
@@ -1023,7 +1023,7 @@
         <v>18.319</v>
       </c>
       <c r="E14">
-        <v>13.939</v>
+        <v>13.981</v>
       </c>
       <c r="F14">
         <v>4847571</v>
@@ -1064,7 +1064,7 @@
         <v>4.933</v>
       </c>
       <c r="E15">
-        <v>4.598</v>
+        <v>4.564</v>
       </c>
       <c r="F15">
         <v>55042369</v>
@@ -1105,7 +1105,7 @@
         <v>251.076</v>
       </c>
       <c r="E16">
-        <v>171.666</v>
+        <v>184.271</v>
       </c>
       <c r="F16">
         <v>1985306</v>
@@ -1146,7 +1146,7 @@
         <v>93.93799999999999</v>
       </c>
       <c r="E17">
-        <v>76.313</v>
+        <v>77.62299999999999</v>
       </c>
       <c r="F17">
         <v>3072441</v>
@@ -1187,7 +1187,7 @@
         <v>97.744</v>
       </c>
       <c r="E18">
-        <v>78.456</v>
+        <v>78.879</v>
       </c>
       <c r="F18">
         <v>6783976</v>
@@ -1228,7 +1228,7 @@
         <v>15.571</v>
       </c>
       <c r="E19">
-        <v>17.721</v>
+        <v>17.424</v>
       </c>
       <c r="F19">
         <v>214005017</v>
@@ -1269,7 +1269,7 @@
         <v>3048.388</v>
       </c>
       <c r="E20">
-        <v>2807.385</v>
+        <v>2887.745</v>
       </c>
       <c r="F20">
         <v>41652230</v>
@@ -1310,7 +1310,7 @@
         <v>2166.496</v>
       </c>
       <c r="E21">
-        <v>1904.577</v>
+        <v>1932.174</v>
       </c>
       <c r="F21">
         <v>65608366</v>

--- a/excel/real_world_graph_time_PTGG.xlsx
+++ b/excel/real_world_graph_time_PTGG.xlsx
@@ -531,7 +531,7 @@
         <v>0.241</v>
       </c>
       <c r="E2">
-        <v>0.274</v>
+        <v>0.239</v>
       </c>
       <c r="F2">
         <v>325729</v>
